--- a/experiments_gamma.xlsx
+++ b/experiments_gamma.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="experiments_alpha" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -1081,11 +1081,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="161484160"/>
-        <c:axId val="161481472"/>
+        <c:axId val="137208192"/>
+        <c:axId val="91194880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="161484160"/>
+        <c:axId val="137208192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1110,14 +1110,15 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161481472"/>
+        <c:crossAx val="91194880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="161481472"/>
+        <c:axId val="91194880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -1132,7 +1133,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="es-AR"/>
-                  <a:t>Cantidad de matches filtrados</a:t>
+                  <a:t>Cantidad de correspondencias filtrados</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1141,7 +1142,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="161484160"/>
+        <c:crossAx val="137208192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1154,7 +1155,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1482,7 +1483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E8" sqref="E8:E12"/>
     </sheetView>
   </sheetViews>
